--- a/results/QDMTTscenario_longTermCO.xlsx
+++ b/results/QDMTTscenario_longTermCO.xlsx
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>456852241.391826</v>
+        <v>456853477.9797112</v>
       </c>
       <c r="I3" t="n">
-        <v>456852241.391826</v>
+        <v>456853477.9797112</v>
       </c>
     </row>
     <row r="4">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>118425.7351414272</v>
+        <v>118426.0556910844</v>
       </c>
       <c r="I6" t="n">
-        <v>118425.7351414272</v>
+        <v>118426.0556910844</v>
       </c>
     </row>
     <row r="7">
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>460750480.6828566</v>
+        <v>460751727.8223272</v>
       </c>
       <c r="I7" t="n">
-        <v>460750480.6828566</v>
+        <v>460751727.8223272</v>
       </c>
     </row>
     <row r="8">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1990085117.069436</v>
+        <v>1990090503.745746</v>
       </c>
       <c r="I9" t="n">
-        <v>1990085117.069436</v>
+        <v>1990090503.745746</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22779218.86273151</v>
+        <v>22779280.52053577</v>
       </c>
       <c r="I10" t="n">
-        <v>22779218.86273151</v>
+        <v>22779280.52053577</v>
       </c>
     </row>
     <row r="11">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>49897.82345225054</v>
+        <v>49897.95851352064</v>
       </c>
       <c r="I11" t="n">
-        <v>49897.82345225054</v>
+        <v>49897.95851352064</v>
       </c>
     </row>
     <row r="12">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>269852317.3552584</v>
+        <v>269853047.7798381</v>
       </c>
       <c r="I12" t="n">
-        <v>269852317.3552584</v>
+        <v>269853047.7798381</v>
       </c>
     </row>
     <row r="13">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1324139.477021047</v>
+        <v>1324143.061144505</v>
       </c>
       <c r="I13" t="n">
-        <v>1324139.477021047</v>
+        <v>1324143.061144505</v>
       </c>
     </row>
     <row r="14">
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>491350602.2256152</v>
+        <v>491351924.8241386</v>
       </c>
       <c r="I15" t="n">
-        <v>491350602.2256152</v>
+        <v>491351924.8241386</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>769120992.6979579</v>
+        <v>769123074.4581232</v>
       </c>
       <c r="I16" t="n">
-        <v>1990554258.26536</v>
+        <v>1990556340.025525</v>
       </c>
     </row>
     <row r="17">
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>613895.9117184515</v>
+        <v>613897.5733853503</v>
       </c>
       <c r="I17" t="n">
-        <v>613895.9117184515</v>
+        <v>613897.5733853503</v>
       </c>
     </row>
     <row r="18">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>963400.7352292009</v>
+        <v>963403.1992619155</v>
       </c>
       <c r="I19" t="n">
-        <v>963400.7352292009</v>
+        <v>963403.1992619155</v>
       </c>
     </row>
     <row r="20">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1928108.186585009</v>
+        <v>1928113.405504845</v>
       </c>
       <c r="I20" t="n">
-        <v>1928108.186585009</v>
+        <v>1928113.405504845</v>
       </c>
     </row>
     <row r="21">
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1738231.858773473</v>
+        <v>1738236.563744279</v>
       </c>
       <c r="I21" t="n">
-        <v>1738231.858773473</v>
+        <v>1738236.563744279</v>
       </c>
     </row>
     <row r="22">
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>101412088.6312985</v>
+        <v>101412363.1291532</v>
       </c>
       <c r="I22" t="n">
-        <v>101412088.6312985</v>
+        <v>101412363.1291532</v>
       </c>
     </row>
     <row r="23">
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8506054.643568378</v>
+        <v>8506077.667389143</v>
       </c>
       <c r="I25" t="n">
-        <v>8506054.643568378</v>
+        <v>8506077.667389143</v>
       </c>
     </row>
     <row r="26">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>520589.3961233868</v>
+        <v>520590.7504117974</v>
       </c>
       <c r="I26" t="n">
-        <v>520589.3961233868</v>
+        <v>520590.7504117974</v>
       </c>
     </row>
     <row r="27">
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1408006.279190286</v>
+        <v>1408010.090320777</v>
       </c>
       <c r="I29" t="n">
-        <v>1408006.279190286</v>
+        <v>1408010.090320777</v>
       </c>
     </row>
     <row r="30">
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>528456122.7913845</v>
+        <v>528457553.1935585</v>
       </c>
       <c r="I30" t="n">
-        <v>528456122.7913845</v>
+        <v>528457553.1935585</v>
       </c>
     </row>
     <row r="31">
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1148060.354466669</v>
+        <v>1148063.350207062</v>
       </c>
       <c r="I32" t="n">
-        <v>1148060.354466669</v>
+        <v>1148063.350207062</v>
       </c>
     </row>
     <row r="33">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5031084.129006222</v>
+        <v>5031097.746927115</v>
       </c>
       <c r="I34" t="n">
-        <v>5031084.129006222</v>
+        <v>5031097.746927115</v>
       </c>
     </row>
     <row r="35">
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>123719.5070272883</v>
+        <v>123719.8419058983</v>
       </c>
       <c r="I35" t="n">
-        <v>123719.5070272883</v>
+        <v>123719.8419058983</v>
       </c>
     </row>
     <row r="36">
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>137809361.1798127</v>
+        <v>137809734.1962304</v>
       </c>
       <c r="I36" t="n">
-        <v>137809361.1798127</v>
+        <v>137809734.1962304</v>
       </c>
     </row>
     <row r="37">
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>306744084.0595282</v>
+        <v>306744914.3411462</v>
       </c>
       <c r="I38" t="n">
-        <v>306744084.0595282</v>
+        <v>306744914.3411462</v>
       </c>
     </row>
     <row r="39">
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1417867979.469384</v>
+        <v>1417871817.293099</v>
       </c>
       <c r="I39" t="n">
-        <v>1417867979.469384</v>
+        <v>1417871817.293099</v>
       </c>
     </row>
     <row r="40">
@@ -1761,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6168632.249573302</v>
+        <v>6168648.946560241</v>
       </c>
       <c r="I40" t="n">
-        <v>6168632.249573302</v>
+        <v>6168648.946560241</v>
       </c>
     </row>
     <row r="41">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>231998.8735996519</v>
+        <v>231999.5015641675</v>
       </c>
       <c r="I42" t="n">
-        <v>231998.8735996519</v>
+        <v>231999.5015641675</v>
       </c>
     </row>
     <row r="43">
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6715281.635043663</v>
+        <v>6715298.810319778</v>
       </c>
       <c r="I43" t="n">
-        <v>6715281.635043663</v>
+        <v>6715298.810319778</v>
       </c>
     </row>
     <row r="44">
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3034963.217158981</v>
+        <v>3034971.432066135</v>
       </c>
       <c r="I44" t="n">
-        <v>3034963.217158981</v>
+        <v>3034971.432066135</v>
       </c>
     </row>
     <row r="45">
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6013719.209840587</v>
+        <v>6013735.487515611</v>
       </c>
       <c r="I45" t="n">
-        <v>6013719.209840587</v>
+        <v>6013735.487515611</v>
       </c>
     </row>
     <row r="46">
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>279120293.3479211</v>
+        <v>279121048.8586574</v>
       </c>
       <c r="I46" t="n">
-        <v>279120293.3479211</v>
+        <v>279121048.8586574</v>
       </c>
     </row>
     <row r="47">
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>79192.33601442508</v>
+        <v>79195.45192008157</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>149850406.2745804</v>
+        <v>149850808.9816268</v>
       </c>
       <c r="I50" t="n">
-        <v>149929598.6105948</v>
+        <v>149930004.4335469</v>
       </c>
     </row>
     <row r="51">
@@ -2124,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>653188332.3460588</v>
+        <v>653190088.7295294</v>
       </c>
       <c r="I51" t="n">
-        <v>5078647443.572721</v>
+        <v>5078649199.956192</v>
       </c>
     </row>
     <row r="52">
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>247937374.5141947</v>
+        <v>247938045.563354</v>
       </c>
       <c r="I52" t="n">
-        <v>1365942999.916312</v>
+        <v>1365943670.965471</v>
       </c>
     </row>
     <row r="53">
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>49817773.29717726</v>
+        <v>49817908.14177106</v>
       </c>
       <c r="I53" t="n">
-        <v>49817773.29717726</v>
+        <v>49817908.14177106</v>
       </c>
     </row>
     <row r="54">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>10787485.40006326</v>
+        <v>10787514.59916211</v>
       </c>
       <c r="I54" t="n">
-        <v>10787485.40006326</v>
+        <v>10787514.59916211</v>
       </c>
     </row>
     <row r="55">
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>34798930.74961489</v>
+        <v>34799023.20672803</v>
       </c>
       <c r="I55" t="n">
-        <v>34798930.74961489</v>
+        <v>34799023.20672803</v>
       </c>
     </row>
     <row r="56">
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>34835757.7837514</v>
+        <v>34835851.62901706</v>
       </c>
       <c r="I56" t="n">
-        <v>34835757.7837514</v>
+        <v>34835851.62901706</v>
       </c>
     </row>
     <row r="57">
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1169833075.219472</v>
+        <v>1169836241.438128</v>
       </c>
       <c r="I57" t="n">
-        <v>1916459694.619969</v>
+        <v>1916462860.838625</v>
       </c>
     </row>
     <row r="58">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>76952265.35560679</v>
+        <v>76501409.41965269</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>5800262.898834265</v>
+        <v>5800278.598733439</v>
       </c>
       <c r="I58" t="n">
-        <v>82752528.25444105</v>
+        <v>82301688.01838613</v>
       </c>
     </row>
     <row r="59">
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>8108390023.831779</v>
+        <v>8108411971.271154</v>
       </c>
       <c r="I60" t="n">
-        <v>8108390023.831779</v>
+        <v>8108411971.271154</v>
       </c>
     </row>
     <row r="61">
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>45109739.34295291</v>
+        <v>45109861.44404407</v>
       </c>
       <c r="I61" t="n">
-        <v>995070743.3431911</v>
+        <v>995070865.4442823</v>
       </c>
     </row>
     <row r="62">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>12876854511.28532</v>
+        <v>12876889365.79811</v>
       </c>
       <c r="I63" t="n">
-        <v>12876854511.28532</v>
+        <v>12876889365.79811</v>
       </c>
     </row>
     <row r="64">
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>126258892.6802302</v>
+        <v>126259234.4323394</v>
       </c>
       <c r="I64" t="n">
-        <v>126258892.6802302</v>
+        <v>126259234.4323394</v>
       </c>
     </row>
     <row r="65">
@@ -2586,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>846446.3508792548</v>
+        <v>846448.642003623</v>
       </c>
       <c r="I65" t="n">
-        <v>846446.3508792548</v>
+        <v>846448.642003623</v>
       </c>
     </row>
     <row r="66">
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>10804016374.22454</v>
+        <v>10750133384.0193</v>
       </c>
       <c r="I68" t="n">
-        <v>10804016374.22454</v>
+        <v>10750133384.0193</v>
       </c>
     </row>
     <row r="69">
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>12004779.66654142</v>
+        <v>12004811.96105245</v>
       </c>
       <c r="I69" t="n">
-        <v>12004779.66654142</v>
+        <v>12004811.96105245</v>
       </c>
     </row>
     <row r="70">
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>30235771.2353337</v>
+        <v>30235853.07621138</v>
       </c>
       <c r="I71" t="n">
-        <v>30235771.2353337</v>
+        <v>30235853.07621138</v>
       </c>
     </row>
     <row r="72">
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>400705.0600367127</v>
+        <v>400706.1446478361</v>
       </c>
       <c r="I73" t="n">
-        <v>400705.0600367127</v>
+        <v>400706.1446478361</v>
       </c>
     </row>
     <row r="74">
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>751563.8117297614</v>
+        <v>751565.846030177</v>
       </c>
       <c r="I74" t="n">
-        <v>751563.8117297614</v>
+        <v>751565.846030177</v>
       </c>
     </row>
     <row r="75">
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>57910527.8080169</v>
+        <v>57910684.55772855</v>
       </c>
       <c r="I75" t="n">
-        <v>86926267.89355496</v>
+        <v>86926424.64326662</v>
       </c>
     </row>
     <row r="76">
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>203537507.0507222</v>
+        <v>203538057.9772419</v>
       </c>
       <c r="I78" t="n">
-        <v>203537507.0507222</v>
+        <v>203538057.9772419</v>
       </c>
     </row>
     <row r="79">
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>4408198.38249281</v>
+        <v>4408210.314413508</v>
       </c>
       <c r="I79" t="n">
-        <v>4408198.38249281</v>
+        <v>4408210.314413508</v>
       </c>
     </row>
     <row r="80">
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>389685.1337554629</v>
+        <v>389686.1885383265</v>
       </c>
       <c r="I80" t="n">
-        <v>389685.1337554629</v>
+        <v>389686.1885383265</v>
       </c>
     </row>
     <row r="81">
@@ -3180,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>21501749.86953326</v>
+        <v>21501808.06953971</v>
       </c>
       <c r="I83" t="n">
-        <v>21501749.86953326</v>
+        <v>21501808.06953971</v>
       </c>
     </row>
     <row r="84">
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>63373242.74424069</v>
+        <v>63373414.28019283</v>
       </c>
       <c r="I84" t="n">
-        <v>63373242.74424069</v>
+        <v>63373414.28019283</v>
       </c>
     </row>
     <row r="85">
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>332830.8378248584</v>
+        <v>332831.7387169731</v>
       </c>
       <c r="I85" t="n">
-        <v>332830.8378248584</v>
+        <v>332831.7387169731</v>
       </c>
     </row>
     <row r="86">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>405259291.7082416</v>
+        <v>402885417.9541403</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>154544635.8781419</v>
+        <v>154545043.9158717</v>
       </c>
       <c r="I86" t="n">
-        <v>559803927.5863836</v>
+        <v>557430461.870012</v>
       </c>
     </row>
     <row r="87">
@@ -3312,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>53657814.09040187</v>
+        <v>53657959.32905199</v>
       </c>
       <c r="I87" t="n">
-        <v>53657814.09040187</v>
+        <v>53657959.32905199</v>
       </c>
     </row>
     <row r="88">
@@ -3378,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>16912681.38081789</v>
+        <v>16912727.15933227</v>
       </c>
       <c r="I89" t="n">
-        <v>16912681.38081789</v>
+        <v>16912727.15933227</v>
       </c>
     </row>
     <row r="90">
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>23963165.19941829</v>
+        <v>23963230.06187728</v>
       </c>
       <c r="I91" t="n">
-        <v>23963165.19941829</v>
+        <v>23963230.06187728</v>
       </c>
     </row>
     <row r="92">
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>2930081.301697224</v>
+        <v>2930089.232714546</v>
       </c>
       <c r="I92" t="n">
-        <v>2930081.301697224</v>
+        <v>2930089.232714546</v>
       </c>
     </row>
     <row r="93">
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>3128045.310544386</v>
+        <v>3128053.777402124</v>
       </c>
       <c r="I93" t="n">
-        <v>3128045.310544386</v>
+        <v>3128053.777402124</v>
       </c>
     </row>
     <row r="94">
@@ -3543,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>28654156.11766412</v>
+        <v>28654233.67749441</v>
       </c>
       <c r="I94" t="n">
-        <v>28654156.11766412</v>
+        <v>28654233.67749441</v>
       </c>
     </row>
     <row r="95">
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>955714.6023958465</v>
+        <v>955717.1892827913</v>
       </c>
       <c r="I95" t="n">
-        <v>1088684206.503518</v>
+        <v>1088684209.090405</v>
       </c>
     </row>
     <row r="96">
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1961666.739685297</v>
+        <v>1961672.049439973</v>
       </c>
       <c r="I98" t="n">
-        <v>1961666.739685297</v>
+        <v>1961672.049439973</v>
       </c>
     </row>
     <row r="99">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>59591876.41375522</v>
+        <v>59592037.71446856</v>
       </c>
       <c r="I99" t="n">
-        <v>59591876.41375522</v>
+        <v>59592037.71446856</v>
       </c>
     </row>
     <row r="100">
@@ -3741,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1695770.27099703</v>
+        <v>1695774.861034646</v>
       </c>
       <c r="I100" t="n">
-        <v>1695770.27099703</v>
+        <v>1695774.861034646</v>
       </c>
     </row>
     <row r="101">
@@ -3774,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1699644.382896806</v>
+        <v>1699648.983420701</v>
       </c>
       <c r="I101" t="n">
-        <v>1699644.382896806</v>
+        <v>1699648.983420701</v>
       </c>
     </row>
     <row r="102">
@@ -3807,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>71479356.45069802</v>
+        <v>71479549.55329946</v>
       </c>
       <c r="I102" t="n">
-        <v>71479356.45069802</v>
+        <v>71479549.55329946</v>
       </c>
     </row>
     <row r="103">
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>35997882.35605212</v>
+        <v>35997979.79356293</v>
       </c>
       <c r="I104" t="n">
-        <v>35997882.35605212</v>
+        <v>35997979.79356293</v>
       </c>
     </row>
     <row r="105">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>32585571.62620953</v>
+        <v>32585658.18986348</v>
       </c>
       <c r="I105" t="n">
-        <v>32585571.62620953</v>
+        <v>32585658.18986348</v>
       </c>
     </row>
     <row r="106">
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>12002536.31294428</v>
+        <v>12002567.54871004</v>
       </c>
       <c r="I106" t="n">
-        <v>12002536.31294428</v>
+        <v>12002567.54871004</v>
       </c>
     </row>
     <row r="107">
@@ -4005,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>31325885.67158749</v>
+        <v>31325970.46313977</v>
       </c>
       <c r="I108" t="n">
-        <v>31325885.67158749</v>
+        <v>31325970.46313977</v>
       </c>
     </row>
     <row r="109">
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>431065.7393776354</v>
+        <v>431066.9061677323</v>
       </c>
       <c r="I109" t="n">
-        <v>431065.7393776354</v>
+        <v>431066.9061677323</v>
       </c>
     </row>
     <row r="110">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>16761750.93166282</v>
+        <v>16761794.47827524</v>
       </c>
       <c r="I112" t="n">
-        <v>16761750.93166282</v>
+        <v>16761794.47827524</v>
       </c>
     </row>
     <row r="113">
@@ -4203,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>7730097.525652562</v>
+        <v>7730118.449146166</v>
       </c>
       <c r="I114" t="n">
-        <v>12314714.62034801</v>
+        <v>12314735.54384162</v>
       </c>
     </row>
     <row r="115">
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>117840314.0729189</v>
+        <v>117149899.0231743</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>12052014.97778826</v>
+        <v>12052047.59941807</v>
       </c>
       <c r="I116" t="n">
-        <v>129892329.0507071</v>
+        <v>129201946.6225923</v>
       </c>
     </row>
     <row r="117">
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>52594301.73536929</v>
+        <v>52594444.09535018</v>
       </c>
       <c r="I118" t="n">
-        <v>52594301.73536929</v>
+        <v>52594444.09535018</v>
       </c>
     </row>
     <row r="119">
@@ -4401,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>6280.569052141077</v>
+        <v>6280.586052113711</v>
       </c>
       <c r="I120" t="n">
-        <v>6280.569052141077</v>
+        <v>6280.586052113711</v>
       </c>
     </row>
     <row r="121">
@@ -4434,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>376981.0791684891</v>
+        <v>376982.0995645672</v>
       </c>
       <c r="I121" t="n">
-        <v>376981.0791684891</v>
+        <v>376982.0995645672</v>
       </c>
     </row>
     <row r="122">
@@ -4467,10 +4467,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>29063.05956088888</v>
+        <v>29063.13822752133</v>
       </c>
       <c r="I122" t="n">
-        <v>29063.05956088888</v>
+        <v>29063.13822752133</v>
       </c>
     </row>
     <row r="123">
@@ -4500,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>1707607.69077092</v>
+        <v>1707612.312849552</v>
       </c>
       <c r="I123" t="n">
-        <v>1707607.69077092</v>
+        <v>1707612.312849552</v>
       </c>
     </row>
     <row r="124">
@@ -4566,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>865193.9458160023</v>
+        <v>865196.2876855495</v>
       </c>
       <c r="I125" t="n">
-        <v>865193.9458160023</v>
+        <v>865196.2876855495</v>
       </c>
     </row>
     <row r="126">
@@ -4599,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>803759.5379936108</v>
+        <v>803761.7135751604</v>
       </c>
       <c r="I126" t="n">
-        <v>803759.5379936108</v>
+        <v>803761.7135751604</v>
       </c>
     </row>
     <row r="127">
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>68528041.6709657</v>
+        <v>68126542.45270517</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>237922061.33702</v>
       </c>
       <c r="I127" t="n">
-        <v>306450103.0079857</v>
+        <v>306048603.7897252</v>
       </c>
     </row>
     <row r="128">
@@ -4665,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>26962975.47560116</v>
+        <v>26963047.1249669</v>
       </c>
       <c r="I128" t="n">
-        <v>26962975.47560116</v>
+        <v>26963047.1249669</v>
       </c>
     </row>
     <row r="129">
@@ -4698,10 +4698,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>208631.1421561942</v>
+        <v>208631.7068699451</v>
       </c>
       <c r="I129" t="n">
-        <v>208631.1421561942</v>
+        <v>208631.7068699451</v>
       </c>
     </row>
     <row r="130">
@@ -4731,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1714027.957373886</v>
+        <v>1714032.596830618</v>
       </c>
       <c r="I130" t="n">
-        <v>1714027.957373886</v>
+        <v>1714032.596830618</v>
       </c>
     </row>
     <row r="131">
@@ -4764,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>650504.5468837728</v>
+        <v>650506.3076413417</v>
       </c>
       <c r="I131" t="n">
-        <v>650504.5468837728</v>
+        <v>650506.3076413417</v>
       </c>
     </row>
     <row r="132">
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>1304063.869850823</v>
+        <v>1304067.399634496</v>
       </c>
       <c r="I132" t="n">
-        <v>1304063.869850823</v>
+        <v>1304067.399634496</v>
       </c>
     </row>
     <row r="133">
@@ -4896,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>105080911.2313181</v>
+        <v>105081193.9647346</v>
       </c>
       <c r="I135" t="n">
-        <v>105080911.2313181</v>
+        <v>105081193.9647346</v>
       </c>
     </row>
     <row r="136">
@@ -4962,10 +4962,10 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>3704894.652203429</v>
+        <v>3704904.680452012</v>
       </c>
       <c r="I137" t="n">
-        <v>3704894.652203429</v>
+        <v>3704904.680452012</v>
       </c>
     </row>
     <row r="138">
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>139889.9799401444</v>
+        <v>139890.3585882909</v>
       </c>
       <c r="I138" t="n">
-        <v>139889.9799401444</v>
+        <v>139890.3585882909</v>
       </c>
     </row>
     <row r="139">
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>2214097325.319032</v>
+        <v>1001845064.066102</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5028,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>17731163670.13566</v>
+        <v>17551638191.16152</v>
       </c>
       <c r="I139" t="n">
-        <v>19945260995.45469</v>
+        <v>18553483255.22762</v>
       </c>
     </row>
     <row r="140">
@@ -5061,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>37229733.32066983</v>
+        <v>37229833.81159678</v>
       </c>
       <c r="I140" t="n">
-        <v>37229733.32066983</v>
+        <v>37229833.81159678</v>
       </c>
     </row>
     <row r="141">
@@ -5094,10 +5094,10 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>91700.50936226849</v>
+        <v>91700.75757324058</v>
       </c>
       <c r="I141" t="n">
-        <v>91700.50936226849</v>
+        <v>91700.75757324058</v>
       </c>
     </row>
     <row r="142">
@@ -5127,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>9239288.89393506</v>
+        <v>9239313.101238264</v>
       </c>
       <c r="I142" t="n">
-        <v>9239288.89393506</v>
+        <v>9239313.101238264</v>
       </c>
     </row>
     <row r="143">
@@ -5160,10 +5160,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>184520238.1118084</v>
+        <v>184520737.5632072</v>
       </c>
       <c r="I143" t="n">
-        <v>184520238.1118084</v>
+        <v>184520737.5632072</v>
       </c>
     </row>
     <row r="144">
@@ -5193,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>3959439592.399444</v>
+        <v>3959450309.63926</v>
       </c>
       <c r="I144" t="n">
-        <v>3959439592.399444</v>
+        <v>3959450309.63926</v>
       </c>
     </row>
     <row r="145">
@@ -5226,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>964756927.6836517</v>
+        <v>964759539.0459714</v>
       </c>
       <c r="I145" t="n">
-        <v>964756927.6836517</v>
+        <v>964759539.0459714</v>
       </c>
     </row>
     <row r="146">
@@ -5259,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>25231827.16010369</v>
+        <v>25231895.45652201</v>
       </c>
       <c r="I146" t="n">
-        <v>25231827.16010369</v>
+        <v>25231895.45652201</v>
       </c>
     </row>
     <row r="147">
@@ -5292,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>9872937620.125996</v>
+        <v>9872964343.637266</v>
       </c>
       <c r="I147" t="n">
-        <v>9872937620.125996</v>
+        <v>9872964343.637266</v>
       </c>
     </row>
     <row r="148">
@@ -5391,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>14456111.62566712</v>
+        <v>14456149.80352748</v>
       </c>
       <c r="I150" t="n">
-        <v>14456111.62566712</v>
+        <v>14456149.80352748</v>
       </c>
     </row>
     <row r="151">
@@ -5424,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>60870063.45853166</v>
+        <v>60870228.21898639</v>
       </c>
       <c r="I151" t="n">
-        <v>60870063.45853166</v>
+        <v>60870228.21898639</v>
       </c>
     </row>
     <row r="152">
@@ -5457,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>32442443.67024613</v>
+        <v>32442531.48404931</v>
       </c>
       <c r="I152" t="n">
-        <v>32442443.67024613</v>
+        <v>32442531.48404931</v>
       </c>
     </row>
     <row r="153">
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>2891180324.77426</v>
+        <v>2874242936.451978</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>554237062.8659244</v>
+        <v>554238552.1198823</v>
       </c>
       <c r="I153" t="n">
-        <v>3445417387.640184</v>
+        <v>3428481488.57186</v>
       </c>
     </row>
     <row r="154">
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>181386.7968841937</v>
+        <v>181393.9337382741</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5589,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>373133015.4994915</v>
+        <v>373134018.8339133</v>
       </c>
       <c r="I156" t="n">
-        <v>373314402.2963757</v>
+        <v>373315412.7676516</v>
       </c>
     </row>
     <row r="157">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>21930375.44256444</v>
+        <v>21930434.80275605</v>
       </c>
       <c r="I157" t="n">
-        <v>21930375.44256444</v>
+        <v>21930434.80275605</v>
       </c>
     </row>
     <row r="158">
@@ -5655,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>54456552.325142</v>
+        <v>54456699.72578223</v>
       </c>
       <c r="I158" t="n">
-        <v>54456552.325142</v>
+        <v>54456699.72578223</v>
       </c>
     </row>
     <row r="159">
@@ -5688,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>56858484.27006496</v>
+        <v>56858638.17215068</v>
       </c>
       <c r="I159" t="n">
-        <v>117410180.5131267</v>
+        <v>117410334.4152124</v>
       </c>
     </row>
     <row r="160">
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>53149003.30517214</v>
+        <v>53149147.16659524</v>
       </c>
       <c r="I160" t="n">
-        <v>53149003.30517214</v>
+        <v>53149147.16659524</v>
       </c>
     </row>
     <row r="161">
@@ -5754,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>459117294.0489222</v>
+        <v>459118536.7677539</v>
       </c>
       <c r="I161" t="n">
-        <v>459117294.0489222</v>
+        <v>459118536.7677539</v>
       </c>
     </row>
     <row r="162">
@@ -5787,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>1016434.357101219</v>
+        <v>1016437.10834177</v>
       </c>
       <c r="I162" t="n">
-        <v>1016434.357101219</v>
+        <v>1016437.10834177</v>
       </c>
     </row>
     <row r="163">
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>3818257.932034274</v>
+        <v>3818267.958634807</v>
       </c>
       <c r="I163" t="n">
-        <v>3818257.932034274</v>
+        <v>3818267.958634807</v>
       </c>
     </row>
     <row r="164">
@@ -5919,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>159798.1891727598</v>
+        <v>159798.6217075859</v>
       </c>
       <c r="I166" t="n">
-        <v>159798.1891727598</v>
+        <v>159798.6217075859</v>
       </c>
     </row>
     <row r="167">
@@ -5952,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>223162985.1465968</v>
+        <v>223163589.1683431</v>
       </c>
       <c r="I167" t="n">
-        <v>223162985.1465968</v>
+        <v>223163589.1683431</v>
       </c>
     </row>
     <row r="168">
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>21.13530734140502</v>
+        <v>21.1361389322762</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6051,10 +6051,10 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>210097.3194187915</v>
+        <v>210097.8873267449</v>
       </c>
       <c r="I170" t="n">
-        <v>210118.4547261329</v>
+        <v>210119.0234656771</v>
       </c>
     </row>
     <row r="171">
@@ -6084,10 +6084,10 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>16297673.40352759</v>
+        <v>16297717.51736498</v>
       </c>
       <c r="I171" t="n">
-        <v>26783168.57117689</v>
+        <v>26783212.68501429</v>
       </c>
     </row>
     <row r="172">
@@ -6117,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>479093237.3491703</v>
+        <v>479094534.1380212</v>
       </c>
       <c r="I172" t="n">
-        <v>479093237.3491703</v>
+        <v>479094534.1380212</v>
       </c>
     </row>
     <row r="173">
@@ -6150,10 +6150,10 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>39972273.49150142</v>
+        <v>39972381.68672224</v>
       </c>
       <c r="I173" t="n">
-        <v>39972273.49150142</v>
+        <v>39972381.68672224</v>
       </c>
     </row>
     <row r="174">
@@ -6216,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>42353405.31534886</v>
+        <v>42353519.08456885</v>
       </c>
       <c r="I175" t="n">
-        <v>42353405.31534886</v>
+        <v>42353519.08456885</v>
       </c>
     </row>
     <row r="176">
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>1960285.914472199</v>
+        <v>1960291.220489317</v>
       </c>
       <c r="I176" t="n">
-        <v>1960285.914472199</v>
+        <v>1960291.220489317</v>
       </c>
     </row>
     <row r="177">
@@ -6315,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>4392897.403065426</v>
+        <v>4392909.293570095</v>
       </c>
       <c r="I178" t="n">
-        <v>4392897.403065426</v>
+        <v>4392909.293570095</v>
       </c>
     </row>
     <row r="179">
@@ -6348,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>39925298.91409948</v>
+        <v>39925406.98217154</v>
       </c>
       <c r="I179" t="n">
-        <v>39925298.91409948</v>
+        <v>39925406.98217154</v>
       </c>
     </row>
     <row r="180">
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>111553577.9007316</v>
+        <v>111553879.8491308</v>
       </c>
       <c r="I180" t="n">
-        <v>111553577.9007316</v>
+        <v>111553879.8491308</v>
       </c>
     </row>
     <row r="181">
@@ -6414,10 +6414,10 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>831894.8367444958</v>
+        <v>831897.0884814549</v>
       </c>
       <c r="I181" t="n">
-        <v>831894.8367444958</v>
+        <v>831897.0884814549</v>
       </c>
     </row>
     <row r="182">
@@ -6447,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>4089397.697079308</v>
+        <v>4089408.766084101</v>
       </c>
       <c r="I182" t="n">
-        <v>4089397.697079308</v>
+        <v>4089408.766084101</v>
       </c>
     </row>
     <row r="183">
@@ -6480,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>18787110.02875238</v>
+        <v>18787160.88088914</v>
       </c>
       <c r="I183" t="n">
-        <v>18787110.02875238</v>
+        <v>18787160.88088914</v>
       </c>
     </row>
     <row r="184">
@@ -6513,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>121497361.3339854</v>
+        <v>121497690.1977875</v>
       </c>
       <c r="I184" t="n">
-        <v>121497361.3339854</v>
+        <v>121497690.1977875</v>
       </c>
     </row>
     <row r="185">
@@ -6546,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>10178393762.08316</v>
+        <v>10178421312.51912</v>
       </c>
       <c r="I185" t="n">
-        <v>10178393762.08316</v>
+        <v>10178421312.51912</v>
       </c>
     </row>
     <row r="186">
@@ -6579,10 +6579,10 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>801887.7046842705</v>
+        <v>801889.8751992226</v>
       </c>
       <c r="I186" t="n">
-        <v>801887.7046842705</v>
+        <v>801889.8751992226</v>
       </c>
     </row>
     <row r="187">
@@ -6645,10 +6645,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>93452338.8114759</v>
+        <v>93452590.99776775</v>
       </c>
       <c r="I188" t="n">
-        <v>93452338.8114759</v>
+        <v>93452590.99776775</v>
       </c>
     </row>
     <row r="189">
@@ -6711,10 +6711,10 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>286122425.8290436</v>
+        <v>286123200.2928491</v>
       </c>
       <c r="I190" t="n">
-        <v>286122425.8290436</v>
+        <v>286123200.2928491</v>
       </c>
     </row>
     <row r="191">
@@ -6744,10 +6744,10 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>84005234.50044537</v>
+        <v>84005460.44645619</v>
       </c>
       <c r="I191" t="n">
-        <v>84005234.50044537</v>
+        <v>84005460.44645619</v>
       </c>
     </row>
     <row r="192">
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>22651684.71918206</v>
+        <v>22651746.03178243</v>
       </c>
       <c r="I192" t="n">
-        <v>22651684.71918206</v>
+        <v>22651746.03178243</v>
       </c>
     </row>
     <row r="193">
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>21338742.93597516</v>
+        <v>21338800.6947615</v>
       </c>
       <c r="I193" t="n">
-        <v>21338742.93597516</v>
+        <v>21338800.6947615</v>
       </c>
     </row>
     <row r="194">
@@ -6843,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>133034.6783754532</v>
+        <v>133035.038467966</v>
       </c>
       <c r="I194" t="n">
-        <v>133034.6783754532</v>
+        <v>133035.038467966</v>
       </c>
     </row>
     <row r="195">
@@ -6876,10 +6876,10 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>222198.5845286703</v>
+        <v>222199.1859661873</v>
       </c>
       <c r="I195" t="n">
-        <v>222198.5845286703</v>
+        <v>222199.1859661873</v>
       </c>
     </row>
     <row r="196">
@@ -6909,10 +6909,10 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>174215002.953231</v>
+        <v>174215474.510865</v>
       </c>
       <c r="I196" t="n">
-        <v>174215002.953231</v>
+        <v>174215474.510865</v>
       </c>
     </row>
     <row r="197">
@@ -6942,10 +6942,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>10126545.02271231</v>
+        <v>10126571.53519339</v>
       </c>
       <c r="I197" t="n">
-        <v>10126545.02271231</v>
+        <v>10126571.53519339</v>
       </c>
     </row>
     <row r="198">
@@ -6975,10 +6975,10 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>125300.248838379</v>
+        <v>125300.5879956725</v>
       </c>
       <c r="I198" t="n">
-        <v>125300.248838379</v>
+        <v>125300.5879956725</v>
       </c>
     </row>
   </sheetData>
